--- a/Project_PSSMs/Project_2/Fixed_Residue_PSSM/2_H_AgN.xlsx
+++ b/Project_PSSMs/Project_2/Fixed_Residue_PSSM/2_H_AgN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -472,34 +472,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="C2" t="n">
-        <v>1.962318830969018</v>
+        <v>2.043860315017175</v>
       </c>
       <c r="D2" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="F2" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="G2" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="H2" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="I2" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="J2" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="K2" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
     </row>
     <row r="3">
@@ -509,34 +509,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="C3" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="D3" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="F3" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="G3" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="H3" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="I3" t="n">
-        <v>1.239112717545481</v>
+        <v>1.187023305317949</v>
       </c>
       <c r="J3" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="K3" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
     </row>
     <row r="4">
@@ -546,34 +546,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="C4" t="n">
-        <v>1.98145764337773</v>
+        <v>1.914875238630151</v>
       </c>
       <c r="D4" t="n">
-        <v>1.667021484071822</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="F4" t="n">
-        <v>3.412777778145036</v>
+        <v>3.402786998899875</v>
       </c>
       <c r="G4" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="H4" t="n">
-        <v>1.490544594236375</v>
+        <v>1.492424716972967</v>
       </c>
       <c r="I4" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8952469084062894</v>
+        <v>0.8881882288486004</v>
       </c>
       <c r="K4" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
     </row>
     <row r="5">
@@ -583,34 +583,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="C5" t="n">
-        <v>1.677300699767093</v>
+        <v>1.773957515765252</v>
       </c>
       <c r="D5" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="E5" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="F5" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="G5" t="n">
-        <v>2.826393028726267</v>
+        <v>2.82092748253266</v>
       </c>
       <c r="H5" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="I5" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="J5" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="K5" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
     </row>
     <row r="6">
@@ -620,34 +620,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="C6" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="D6" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="F6" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="G6" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="H6" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="I6" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="J6" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="K6" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
     </row>
     <row r="7">
@@ -657,34 +657,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.452412520838581</v>
+        <v>2.432036576367461</v>
       </c>
       <c r="C7" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="D7" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="E7" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="F7" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="G7" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="H7" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="I7" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="J7" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="K7" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
     </row>
     <row r="8">
@@ -694,34 +694,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="C8" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="D8" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="E8" t="n">
-        <v>1.802922171628855</v>
+        <v>1.839268390664411</v>
       </c>
       <c r="F8" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="G8" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="H8" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="I8" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="J8" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="K8" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
     </row>
     <row r="9">
@@ -731,34 +731,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.860633903467793</v>
+        <v>3.86823474104055</v>
       </c>
       <c r="C9" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="D9" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="E9" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="F9" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="G9" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="H9" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="I9" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="J9" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="K9" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
     </row>
     <row r="10">
@@ -768,34 +768,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="C10" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="D10" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="E10" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="F10" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="G10" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="H10" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="I10" t="n">
-        <v>1.737957275728379</v>
+        <v>1.779235111708706</v>
       </c>
       <c r="J10" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="K10" t="n">
-        <v>2.21724671415096</v>
+        <v>2.222325157614311</v>
       </c>
     </row>
     <row r="11">
@@ -805,34 +805,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="C11" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="D11" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="E11" t="n">
-        <v>2.917689116222314</v>
+        <v>2.841988996916316</v>
       </c>
       <c r="F11" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="G11" t="n">
-        <v>2.840429975497147</v>
+        <v>2.83391614666702</v>
       </c>
       <c r="H11" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="I11" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="J11" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="K11" t="n">
-        <v>1.952341785935687</v>
+        <v>1.964541063913814</v>
       </c>
     </row>
     <row r="12">
@@ -842,34 +842,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="C12" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="D12" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="E12" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="F12" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="G12" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="H12" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="I12" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="J12" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="K12" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
     </row>
     <row r="13">
@@ -879,34 +879,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="C13" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="D13" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="E13" t="n">
-        <v>2.518268928797712</v>
+        <v>2.467429084762239</v>
       </c>
       <c r="F13" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="G13" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="H13" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="I13" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="J13" t="n">
-        <v>1.680419799258843</v>
+        <v>1.722114589904622</v>
       </c>
       <c r="K13" t="n">
-        <v>1.762620016561008</v>
+        <v>1.744853784266271</v>
       </c>
     </row>
     <row r="14">
@@ -916,34 +916,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="C14" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="D14" t="n">
-        <v>1.532098916537646</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="F14" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="G14" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="H14" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="I14" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="J14" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="K14" t="n">
-        <v>1.955849096010982</v>
+        <v>1.960190349990876</v>
       </c>
     </row>
     <row r="15">
@@ -953,34 +953,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="C15" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="D15" t="n">
-        <v>1.755732402372938</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="F15" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="G15" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="H15" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="I15" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="J15" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="K15" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
     </row>
     <row r="16">
@@ -990,34 +990,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="C16" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="D16" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="E16" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="F16" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="G16" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="H16" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="I16" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="J16" t="n">
-        <v>1.919805286604974</v>
+        <v>1.901762815660905</v>
       </c>
       <c r="K16" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
     </row>
     <row r="17">
@@ -1027,34 +1027,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="C17" t="n">
-        <v>2.140369427326803</v>
+        <v>2.087887131314006</v>
       </c>
       <c r="D17" t="n">
-        <v>1.842871752005665</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="F17" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="G17" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="H17" t="n">
-        <v>2.060495030356483</v>
+        <v>2.066271575604986</v>
       </c>
       <c r="I17" t="n">
-        <v>2.095853849891065</v>
+        <v>2.118947627688454</v>
       </c>
       <c r="J17" t="n">
-        <v>2.532746771143226</v>
+        <v>2.514776697777206</v>
       </c>
       <c r="K17" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
     </row>
     <row r="18">
@@ -1064,34 +1064,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="C18" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="D18" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="F18" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="G18" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="H18" t="n">
-        <v>1.998284141597257</v>
+        <v>1.999023361854023</v>
       </c>
       <c r="I18" t="n">
-        <v>2.04627174577419</v>
+        <v>2.04747777464594</v>
       </c>
       <c r="J18" t="n">
-        <v>2.423419810685287</v>
+        <v>2.432462959849416</v>
       </c>
       <c r="K18" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
     </row>
     <row r="19">
@@ -1101,34 +1101,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="C19" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="D19" t="n">
-        <v>2.044323965354788</v>
+        <v>4.321925863996237</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="F19" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="G19" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="H19" t="n">
-        <v>1.637677609191794</v>
+        <v>1.648776224710268</v>
       </c>
       <c r="I19" t="n">
-        <v>1.826139069926193</v>
+        <v>1.835904393090829</v>
       </c>
       <c r="J19" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="K19" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
     </row>
     <row r="20">
@@ -1138,34 +1138,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="C20" t="n">
-        <v>1.047872704999718</v>
+        <v>0.9726535848657033</v>
       </c>
       <c r="D20" t="n">
-        <v>1.507586188725172</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="E20" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="F20" t="n">
-        <v>3.224969700813296</v>
+        <v>3.236262304192372</v>
       </c>
       <c r="G20" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="H20" t="n">
-        <v>1.658053405175071</v>
+        <v>1.648446671449341</v>
       </c>
       <c r="I20" t="n">
-        <v>1.234381912721419</v>
+        <v>1.165534826498557</v>
       </c>
       <c r="J20" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="K20" t="n">
-        <v>2.07290900077659</v>
+        <v>2.066226717445547</v>
       </c>
     </row>
     <row r="21">
@@ -1175,34 +1175,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="C21" t="n">
-        <v>1.310154139465799</v>
+        <v>1.305729059921379</v>
       </c>
       <c r="D21" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="E21" t="n">
-        <v>1.689496612397089</v>
+        <v>1.895704478960501</v>
       </c>
       <c r="F21" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="G21" t="n">
-        <v>2.522224964169046</v>
+        <v>2.536982286526364</v>
       </c>
       <c r="H21" t="n">
-        <v>1.462552864267155</v>
+        <v>1.4491152244812</v>
       </c>
       <c r="I21" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="J21" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
       <c r="K21" t="n">
-        <v>-21.50631726743338</v>
+        <v>-19.22871536879193</v>
       </c>
     </row>
   </sheetData>
